--- a/data/globalTables/salesOrderList.xlsx
+++ b/data/globalTables/salesOrderList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="97">
   <si>
     <t>订单编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -370,138 +370,6 @@
   </si>
   <si>
     <t>MPF005003</t>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>72</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-06-24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>57</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-06-28</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>55</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-06-30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>73</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>43</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>29</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-06-29</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-06-22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分拆结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S171101_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-04-28</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S171102_1 ～ S171102_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S171113_1 ～ S171113_3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S171111_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S171105_1 ～ S171105_4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S171107_1 ～ S171107_5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S171104_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -584,7 +452,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -605,9 +473,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -911,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="A1:P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -934,10 +799,9 @@
     <col min="14" max="14" width="13.5" customWidth="1"/>
     <col min="15" max="15" width="14.5" customWidth="1"/>
     <col min="16" max="16" width="11.25" customWidth="1"/>
-    <col min="17" max="17" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -986,11 +850,8 @@
       <c r="P1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1039,11 +900,8 @@
       <c r="P2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -1056,8 +914,8 @@
       <c r="D3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>97</v>
+      <c r="E3" s="3">
+        <v>100</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>27</v>
@@ -1074,21 +932,16 @@
       <c r="J3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>121</v>
-      </c>
+      <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>36</v>
       </c>
@@ -1101,8 +954,8 @@
       <c r="D4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>98</v>
+      <c r="E4" s="3">
+        <v>85</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>27</v>
@@ -1127,9 +980,8 @@
       <c r="P4" s="3">
         <v>0</v>
       </c>
-      <c r="Q4" s="7"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
@@ -1142,8 +994,8 @@
       <c r="D5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>99</v>
+      <c r="E5" s="3">
+        <v>90</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>27</v>
@@ -1168,9 +1020,8 @@
       <c r="P5" s="3">
         <v>0</v>
       </c>
-      <c r="Q5" s="7"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
@@ -1183,8 +1034,8 @@
       <c r="D6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>100</v>
+      <c r="E6" s="3">
+        <v>95</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>27</v>
@@ -1206,19 +1057,16 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>71</v>
@@ -1226,8 +1074,8 @@
       <c r="D7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>101</v>
+      <c r="E7" s="3">
+        <v>100</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>27</v>
@@ -1244,21 +1092,16 @@
       <c r="J7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>121</v>
-      </c>
+      <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>46</v>
       </c>
@@ -1271,8 +1114,8 @@
       <c r="D8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>102</v>
+      <c r="E8" s="3">
+        <v>100</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>27</v>
@@ -1297,14 +1140,13 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-      <c r="Q8" s="7"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>74</v>
@@ -1330,21 +1172,16 @@
       <c r="J9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>121</v>
-      </c>
+      <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>48</v>
       </c>
@@ -1357,8 +1194,8 @@
       <c r="D10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>103</v>
+      <c r="E10" s="3">
+        <v>90</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>27</v>
@@ -1383,14 +1220,13 @@
       <c r="P10" s="3">
         <v>0</v>
       </c>
-      <c r="Q10" s="7"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>76</v>
@@ -1398,8 +1234,8 @@
       <c r="D11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>104</v>
+      <c r="E11" s="3">
+        <v>95</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>27</v>
@@ -1424,9 +1260,8 @@
       <c r="P11" s="3">
         <v>0</v>
       </c>
-      <c r="Q11" s="7"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>52</v>
       </c>
@@ -1465,9 +1300,8 @@
       <c r="P12" s="3">
         <v>0</v>
       </c>
-      <c r="Q12" s="7"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>53</v>
       </c>
@@ -1480,8 +1314,8 @@
       <c r="D13" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>106</v>
+      <c r="E13" s="3">
+        <v>95</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>27</v>
@@ -1503,14 +1337,11 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>54</v>
       </c>
@@ -1523,8 +1354,8 @@
       <c r="D14" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>107</v>
+      <c r="E14" s="3">
+        <v>90</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>27</v>
@@ -1549,9 +1380,8 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="7"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>55</v>
       </c>
@@ -1564,8 +1394,8 @@
       <c r="D15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>108</v>
+      <c r="E15" s="3">
+        <v>95</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>27</v>
@@ -1582,26 +1412,21 @@
       <c r="J15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>121</v>
-      </c>
+      <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>83</v>
@@ -1609,8 +1434,8 @@
       <c r="D16" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>109</v>
+      <c r="E16" s="3">
+        <v>90</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>27</v>
@@ -1635,14 +1460,13 @@
       <c r="P16" s="3">
         <v>0</v>
       </c>
-      <c r="Q16" s="7"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>86</v>
@@ -1650,8 +1474,8 @@
       <c r="D17" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>111</v>
+      <c r="E17" s="3">
+        <v>95</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>27</v>
@@ -1676,14 +1500,13 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-      <c r="Q17" s="7"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>87</v>
@@ -1691,8 +1514,8 @@
       <c r="D18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>113</v>
+      <c r="E18" s="3">
+        <v>100</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>27</v>
@@ -1717,9 +1540,8 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-      <c r="Q18" s="7"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>59</v>
       </c>
@@ -1732,8 +1554,8 @@
       <c r="D19" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>104</v>
+      <c r="E19" s="3">
+        <v>85</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>27</v>
@@ -1758,9 +1580,8 @@
       <c r="P19" s="3">
         <v>0</v>
       </c>
-      <c r="Q19" s="7"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>60</v>
       </c>
@@ -1773,8 +1594,8 @@
       <c r="D20" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>114</v>
+      <c r="E20" s="3">
+        <v>100</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>27</v>
@@ -1799,9 +1620,8 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="7"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>61</v>
       </c>
@@ -1814,8 +1634,8 @@
       <c r="D21" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>103</v>
+      <c r="E21" s="3">
+        <v>85</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>27</v>
@@ -1840,9 +1660,8 @@
       <c r="P21" s="3">
         <v>0</v>
       </c>
-      <c r="Q21" s="7"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>62</v>
       </c>
@@ -1855,8 +1674,8 @@
       <c r="D22" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>115</v>
+      <c r="E22" s="3">
+        <v>90</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>27</v>
@@ -1881,9 +1700,8 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="7"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>63</v>
       </c>
@@ -1896,8 +1714,8 @@
       <c r="D23" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>116</v>
+      <c r="E23" s="3">
+        <v>95</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>27</v>
@@ -1922,7 +1740,6 @@
       <c r="P23" s="3">
         <v>0</v>
       </c>
-      <c r="Q23" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/globalTables/salesOrderList.xlsx
+++ b/data/globalTables/salesOrderList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="120">
   <si>
     <t>订单编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -174,22 +174,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2018-05-22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-05-26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-05-28</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-05-30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2018-01-03</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -370,6 +354,114 @@
   </si>
   <si>
     <t>MPF005003</t>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>57</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-06-28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>55</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>73</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>43</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-06-29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-06-22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分拆结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分拆日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cutTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cutResult</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-07-20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -452,7 +544,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -473,6 +565,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -776,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="A1:P23"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -798,10 +893,11 @@
     <col min="13" max="13" width="16.875" customWidth="1"/>
     <col min="14" max="14" width="13.5" customWidth="1"/>
     <col min="15" max="15" width="14.5" customWidth="1"/>
-    <col min="16" max="16" width="11.25" customWidth="1"/>
+    <col min="16" max="17" width="11.25" customWidth="1"/>
+    <col min="18" max="18" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -850,8 +946,14 @@
       <c r="P1" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -883,7 +985,7 @@
         <v>20</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>34</v>
@@ -900,28 +1002,34 @@
       <c r="P2" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="3">
-        <v>100</v>
+      <c r="E3" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>30</v>
@@ -930,38 +1038,40 @@
         <v>28</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="7"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="3">
-        <v>85</v>
+        <v>64</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>30</v>
@@ -970,38 +1080,40 @@
         <v>28</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="7"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="3">
-        <v>90</v>
+        <v>65</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>30</v>
@@ -1010,38 +1122,40 @@
         <v>28</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P5" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="7"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="3">
-        <v>95</v>
+      <c r="E6" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>30</v>
@@ -1050,38 +1164,40 @@
         <v>28</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="3">
-        <v>100</v>
+        <v>47</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>30</v>
@@ -1090,39 +1206,41 @@
         <v>28</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="7"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>30</v>
       </c>
@@ -1130,29 +1248,31 @@
         <v>28</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="7"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E9" s="3">
         <v>85</v>
@@ -1161,7 +1281,7 @@
         <v>27</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>30</v>
@@ -1170,38 +1290,40 @@
         <v>28</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P9" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="7"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="3">
-        <v>90</v>
+        <v>64</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>30</v>
@@ -1210,38 +1332,40 @@
         <v>28</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="7"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="3">
-        <v>95</v>
+        <v>64</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>30</v>
@@ -1250,29 +1374,31 @@
         <v>28</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="7"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E12" s="3">
         <v>90</v>
@@ -1281,7 +1407,7 @@
         <v>27</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>30</v>
@@ -1290,38 +1416,40 @@
         <v>28</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P12" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="7"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="3">
-        <v>95</v>
+        <v>65</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>30</v>
@@ -1330,38 +1458,40 @@
         <v>28</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="3">
-        <v>90</v>
+        <v>80</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>30</v>
@@ -1370,38 +1500,40 @@
         <v>28</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="7"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="3">
-        <v>95</v>
+        <v>80</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>30</v>
@@ -1410,38 +1542,40 @@
         <v>28</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="7"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="3">
-        <v>90</v>
+        <v>81</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>30</v>
@@ -1450,38 +1584,40 @@
         <v>28</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P16" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="7"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="3">
-        <v>95</v>
+      <c r="E17" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>30</v>
@@ -1490,39 +1626,41 @@
         <v>28</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P17" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="7"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="3">
-        <v>100</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>30</v>
       </c>
@@ -1530,38 +1668,40 @@
         <v>28</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P18" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="7"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="3">
-        <v>85</v>
+        <v>65</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>30</v>
@@ -1570,38 +1710,40 @@
         <v>28</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="7"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="3">
-        <v>100</v>
+        <v>65</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>30</v>
@@ -1610,38 +1752,40 @@
         <v>28</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P20" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="7"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="3">
-        <v>85</v>
+        <v>80</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>30</v>
@@ -1650,38 +1794,40 @@
         <v>28</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P21" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="7"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="3">
-        <v>90</v>
+        <v>80</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>30</v>
@@ -1690,38 +1836,40 @@
         <v>28</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P22" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="7"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="3">
-        <v>95</v>
+        <v>80</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>30</v>
@@ -1730,16 +1878,18 @@
         <v>28</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
+      <c r="P23" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
